--- a/secure/26e-Kateryna.xlsx
+++ b/secure/26e-Kateryna.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Kateryna-516806</t>
+    <t>26e-Kateryna-273672</t>
   </si>
   <si>
-    <t>26e-Kateryna-136233</t>
+    <t>26e-Kateryna-1086247</t>
   </si>
   <si>
-    <t>26e-Kateryna-1002683</t>
+    <t>26e-Kateryna-903407</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F5c041e1"/>
+        <fgColor rgb="F5665cd6"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XE503"/>
+  <dimension ref="A1:NB503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1255,11 +1255,14 @@
       </c>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>-0.468</v>
       </c>
       <c r="M135" s="4"/>
+      <c r="GL135" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
@@ -1501,14 +1504,11 @@
       </c>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:629" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>-0.304</v>
       </c>
       <c r="M176" s="4"/>
-      <c r="XE176" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
@@ -2230,14 +2230,11 @@
       </c>
       <c r="M296" s="4"/>
     </row>
-    <row r="297" spans="1:393" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>0.18</v>
       </c>
       <c r="M297" s="4"/>
-      <c r="OC297" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
@@ -2317,11 +2314,14 @@
       </c>
       <c r="M310" s="4"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>0.236</v>
       </c>
       <c r="M311" s="4"/>
+      <c r="JM311" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
@@ -2641,14 +2641,11 @@
       </c>
       <c r="M364" s="4"/>
     </row>
-    <row r="365" spans="1:384" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>0.452</v>
       </c>
       <c r="M365" s="4"/>
-      <c r="NT365" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
@@ -2806,11 +2803,14 @@
       </c>
       <c r="M391" s="4"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>0.56</v>
       </c>
       <c r="M392" s="4"/>
+      <c r="NB392" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
